--- a/License-sgl.xlsx
+++ b/License-sgl.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad09c6d446519e5c/Waifu/FIRM/Github/easy-licenses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\easy-licenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{7A62C967-1E8D-4561-A05D-60464542BF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B9D2D42-2D52-4E0C-9080-25F44703ECAF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0A274C-2A99-4977-971A-EA129EAD76FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6660" yWindow="5415" windowWidth="21930" windowHeight="12465" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Content" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>ID</t>
   </si>
@@ -48,6 +48,12 @@
   <si>
     <t>FIRM</t>
   </si>
+  <si>
+    <t>4C68A711-89BE-412A-BD2D-CB33771CC62D</t>
+  </si>
+  <si>
+    <t>EASY-90494060417</t>
+  </si>
 </sst>
 </file>
 
@@ -57,20 +63,20 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Arial"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -451,11 +457,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8F5BB5-9E9F-42A9-B3BE-B81ACCB574CB}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -464,33 +471,33 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="57.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="34.75" style="4" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" style="4" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45803.881684143518</v>
+        <v>45804.330126273147</v>
       </c>
       <c r="C1" s="2" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-21710363134</v>
+        <v>EASY-79744637307</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45803.881413425923</v>
+        <v>45804.330042939815</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -499,12 +506,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/License-sgl.xlsx
+++ b/License-sgl.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\easy-licenses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad09c6d446519e5c/Waifu/FIRM/Github/easy-licenses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0A274C-2A99-4977-971A-EA129EAD76FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{8D0A274C-2A99-4977-971A-EA129EAD76FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D5AA52C-922A-45E8-BDEB-B85702A8B588}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1725" yWindow="6180" windowWidth="21930" windowHeight="12630" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Content" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>ID</t>
   </si>
@@ -53,30 +53,43 @@
   </si>
   <si>
     <t>EASY-90494060417</t>
+  </si>
+  <si>
+    <t>LEAnh@4404$LEKhanh!3696)LEHuyen!3200(LEWives(3448$LEFam</t>
+  </si>
+  <si>
+    <t>link server</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -101,7 +114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -122,6 +135,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -462,7 +482,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -471,31 +491,37 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="15.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="57.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="34.75" style="4" customWidth="1"/>
+    <col min="4" max="13" width="9" style="2"/>
+    <col min="14" max="14" width="0" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="9" style="2" collapsed="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45804.330126273147</v>
+        <v>45804.843810879633</v>
       </c>
       <c r="C1" s="2" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-79744637307</v>
+        <v>EASY-18388645109</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>45804.330042939815</v>
       </c>
@@ -505,8 +531,11 @@
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="N2" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
@@ -514,7 +543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
@@ -523,7 +552,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="TjOOo30TXIrT6OIAcqYCBnPegr3klS1NXvvU0gUdtSkFSbQX6JU2xxbRXeIVkL+OoQQr4c8iQaO296uu+FcCyw==" saltValue="EjdWSzSTlaeP31SoV2QkYA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" selectLockedCells="1" sort="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5cW5NmLfxOwAufsrsGDr9pRyxaxtVXkMhXG1jBHdhDvXVbTFPQVcMck6v2Jutpn0CH1wLOFF2XULOWW7r5m9Rg==" saltValue="iSGKe7tVrBx3zJOxH8I5+A==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" selectLockedCells="1" sort="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/License-sgl.xlsx
+++ b/License-sgl.xlsx
@@ -8,13 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad09c6d446519e5c/Waifu/FIRM/Github/easy-licenses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{8D0A274C-2A99-4977-971A-EA129EAD76FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D5AA52C-922A-45E8-BDEB-B85702A8B588}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{8D0A274C-2A99-4977-971A-EA129EAD76FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D238C904-3EEB-4206-B2B6-97A02016729E}"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="6180" windowWidth="21930" windowHeight="12630" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Content" sheetId="2" r:id="rId1"/>
-    <sheet name="TC01" sheetId="1" r:id="rId2"/>
+    <sheet name="QT01" sheetId="15" r:id="rId2"/>
+    <sheet name="TC01" sheetId="1" r:id="rId3"/>
+    <sheet name="CP01" sheetId="3" r:id="rId4"/>
+    <sheet name="BH01" sheetId="4" r:id="rId5"/>
+    <sheet name="BH02" sheetId="5" r:id="rId6"/>
+    <sheet name="LK01" sheetId="6" r:id="rId7"/>
+    <sheet name="LK02" sheetId="7" r:id="rId8"/>
+    <sheet name="CP02" sheetId="8" r:id="rId9"/>
+    <sheet name="TC02" sheetId="9" r:id="rId10"/>
+    <sheet name="CP03" sheetId="10" r:id="rId11"/>
+    <sheet name="GD01" sheetId="11" r:id="rId12"/>
+    <sheet name="GD02" sheetId="12" r:id="rId13"/>
+    <sheet name="TC03" sheetId="13" r:id="rId14"/>
+    <sheet name="BH03" sheetId="14" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="8">
   <si>
     <t>ID</t>
   </si>
@@ -488,13 +501,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83AC8AE2-4D80-48B3-B27C-278BD9DF6326}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -511,11 +523,909 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45804.843810879633</v>
+        <v>45805.921547800928</v>
       </c>
       <c r="C1" s="2" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-18388645109</v>
+        <v>EASY-50461136394</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>45804.330042939815</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="5cW5NmLfxOwAufsrsGDr9pRyxaxtVXkMhXG1jBHdhDvXVbTFPQVcMck6v2Jutpn0CH1wLOFF2XULOWW7r5m9Rg==" saltValue="iSGKe7tVrBx3zJOxH8I5+A==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" selectLockedCells="1" sort="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C33EEC-53F1-40A6-9AB4-832CAF7C5015}">
+  <dimension ref="A1:O4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="57.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="34.75" style="4" customWidth="1"/>
+    <col min="4" max="13" width="9" style="2"/>
+    <col min="14" max="14" width="0" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="9" style="2" collapsed="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <f ca="1">NOW()</f>
+        <v>45805.921547800928</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
+        <v>EASY-89103365398</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>45804.330042939815</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="5cW5NmLfxOwAufsrsGDr9pRyxaxtVXkMhXG1jBHdhDvXVbTFPQVcMck6v2Jutpn0CH1wLOFF2XULOWW7r5m9Rg==" saltValue="iSGKe7tVrBx3zJOxH8I5+A==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" selectLockedCells="1" sort="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA169631-0036-47CA-BC94-BB8196A3F4AF}">
+  <dimension ref="A1:O4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="57.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="34.75" style="4" customWidth="1"/>
+    <col min="4" max="13" width="9" style="2"/>
+    <col min="14" max="14" width="0" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="9" style="2" collapsed="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <f ca="1">NOW()</f>
+        <v>45805.921547800928</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
+        <v>EASY-68997109063</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>45804.330042939815</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="5cW5NmLfxOwAufsrsGDr9pRyxaxtVXkMhXG1jBHdhDvXVbTFPQVcMck6v2Jutpn0CH1wLOFF2XULOWW7r5m9Rg==" saltValue="iSGKe7tVrBx3zJOxH8I5+A==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" selectLockedCells="1" sort="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE53F9D7-FC96-41D0-B876-2681B9D858C3}">
+  <dimension ref="A1:O4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="57.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="34.75" style="4" customWidth="1"/>
+    <col min="4" max="13" width="9" style="2"/>
+    <col min="14" max="14" width="0" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="9" style="2" collapsed="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <f ca="1">NOW()</f>
+        <v>45805.921547800928</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
+        <v>EASY-23025944918</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>45804.330042939815</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="5cW5NmLfxOwAufsrsGDr9pRyxaxtVXkMhXG1jBHdhDvXVbTFPQVcMck6v2Jutpn0CH1wLOFF2XULOWW7r5m9Rg==" saltValue="iSGKe7tVrBx3zJOxH8I5+A==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" selectLockedCells="1" sort="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960FAB0D-F53C-4229-A4AF-C02A592BE1FC}">
+  <dimension ref="A1:O4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="57.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="34.75" style="4" customWidth="1"/>
+    <col min="4" max="13" width="9" style="2"/>
+    <col min="14" max="14" width="0" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="9" style="2" collapsed="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <f ca="1">NOW()</f>
+        <v>45805.921547800928</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
+        <v>EASY-99447527673</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>45804.330042939815</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="5cW5NmLfxOwAufsrsGDr9pRyxaxtVXkMhXG1jBHdhDvXVbTFPQVcMck6v2Jutpn0CH1wLOFF2XULOWW7r5m9Rg==" saltValue="iSGKe7tVrBx3zJOxH8I5+A==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" selectLockedCells="1" sort="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0E1A2F-A8CD-4BF2-9BC8-529223C74CD9}">
+  <dimension ref="A1:O4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="57.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="34.75" style="4" customWidth="1"/>
+    <col min="4" max="13" width="9" style="2"/>
+    <col min="14" max="14" width="0" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="9" style="2" collapsed="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <f ca="1">NOW()</f>
+        <v>45805.921547800928</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
+        <v>EASY-81718908495</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>45804.330042939815</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="5cW5NmLfxOwAufsrsGDr9pRyxaxtVXkMhXG1jBHdhDvXVbTFPQVcMck6v2Jutpn0CH1wLOFF2XULOWW7r5m9Rg==" saltValue="iSGKe7tVrBx3zJOxH8I5+A==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" selectLockedCells="1" sort="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C99B9A-9BC8-47F0-928F-B722FB50C9EE}">
+  <dimension ref="A1:O4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="57.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="34.75" style="4" customWidth="1"/>
+    <col min="4" max="13" width="9" style="2"/>
+    <col min="14" max="14" width="0" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="9" style="2" collapsed="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <f ca="1">NOW()</f>
+        <v>45805.921547800928</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
+        <v>EASY-25674950770</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>45804.330042939815</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="5cW5NmLfxOwAufsrsGDr9pRyxaxtVXkMhXG1jBHdhDvXVbTFPQVcMck6v2Jutpn0CH1wLOFF2XULOWW7r5m9Rg==" saltValue="iSGKe7tVrBx3zJOxH8I5+A==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" selectLockedCells="1" sort="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:O4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="57.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="34.75" style="4" customWidth="1"/>
+    <col min="4" max="13" width="9" style="2"/>
+    <col min="14" max="14" width="0" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="9" style="2" collapsed="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <f ca="1">NOW()</f>
+        <v>45805.921547800928</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
+        <v>EASY-1262854151</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>45804.330042939815</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="5cW5NmLfxOwAufsrsGDr9pRyxaxtVXkMhXG1jBHdhDvXVbTFPQVcMck6v2Jutpn0CH1wLOFF2XULOWW7r5m9Rg==" saltValue="iSGKe7tVrBx3zJOxH8I5+A==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" selectLockedCells="1" sort="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62260F8-F65C-4B5B-90CA-1C75167ED160}">
+  <dimension ref="A1:O4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="57.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="34.75" style="4" customWidth="1"/>
+    <col min="4" max="13" width="9" style="2"/>
+    <col min="14" max="14" width="0" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="9" style="2" collapsed="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <f ca="1">NOW()</f>
+        <v>45805.921547800928</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
+        <v>EASY-81513864087</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>45804.330042939815</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="5cW5NmLfxOwAufsrsGDr9pRyxaxtVXkMhXG1jBHdhDvXVbTFPQVcMck6v2Jutpn0CH1wLOFF2XULOWW7r5m9Rg==" saltValue="iSGKe7tVrBx3zJOxH8I5+A==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" selectLockedCells="1" sort="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559A3726-80C9-43EE-90A1-8F61EFDDE94B}">
+  <dimension ref="A1:O4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="57.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="34.75" style="4" customWidth="1"/>
+    <col min="4" max="13" width="9" style="2"/>
+    <col min="14" max="14" width="0" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="9" style="2" collapsed="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <f ca="1">NOW()</f>
+        <v>45805.921547800928</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
+        <v>EASY-33446360772</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>45804.330042939815</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="5cW5NmLfxOwAufsrsGDr9pRyxaxtVXkMhXG1jBHdhDvXVbTFPQVcMck6v2Jutpn0CH1wLOFF2XULOWW7r5m9Rg==" saltValue="iSGKe7tVrBx3zJOxH8I5+A==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" selectLockedCells="1" sort="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19724779-EA5F-4886-88F8-3522DD516AC4}">
+  <dimension ref="A1:O4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="57.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="34.75" style="4" customWidth="1"/>
+    <col min="4" max="13" width="9" style="2"/>
+    <col min="14" max="14" width="0" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="9" style="2" collapsed="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <f ca="1">NOW()</f>
+        <v>45805.921547800928</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
+        <v>EASY-21990929251</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>45804.330042939815</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="5cW5NmLfxOwAufsrsGDr9pRyxaxtVXkMhXG1jBHdhDvXVbTFPQVcMck6v2Jutpn0CH1wLOFF2XULOWW7r5m9Rg==" saltValue="iSGKe7tVrBx3zJOxH8I5+A==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" selectLockedCells="1" sort="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64C24FF-B53D-443A-B0D9-4EE8823CE2BE}">
+  <dimension ref="A1:O4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="57.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="34.75" style="4" customWidth="1"/>
+    <col min="4" max="13" width="9" style="2"/>
+    <col min="14" max="14" width="0" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="9" style="2" collapsed="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <f ca="1">NOW()</f>
+        <v>45805.921547800928</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
+        <v>EASY-28718397545</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>45804.330042939815</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="5cW5NmLfxOwAufsrsGDr9pRyxaxtVXkMhXG1jBHdhDvXVbTFPQVcMck6v2Jutpn0CH1wLOFF2XULOWW7r5m9Rg==" saltValue="iSGKe7tVrBx3zJOxH8I5+A==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" selectLockedCells="1" sort="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271C8CDE-511E-465B-9E20-EE0FAF4E3026}">
+  <dimension ref="A1:O4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="57.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="34.75" style="4" customWidth="1"/>
+    <col min="4" max="13" width="9" style="2"/>
+    <col min="14" max="14" width="0" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="9" style="2" collapsed="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <f ca="1">NOW()</f>
+        <v>45805.921547800928</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
+        <v>EASY-15241786116</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>45804.330042939815</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="5cW5NmLfxOwAufsrsGDr9pRyxaxtVXkMhXG1jBHdhDvXVbTFPQVcMck6v2Jutpn0CH1wLOFF2XULOWW7r5m9Rg==" saltValue="iSGKe7tVrBx3zJOxH8I5+A==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" selectLockedCells="1" sort="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E755A5C4-51DC-497A-A19E-7A81FC7D6344}">
+  <dimension ref="A1:O4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="57.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="34.75" style="4" customWidth="1"/>
+    <col min="4" max="13" width="9" style="2"/>
+    <col min="14" max="14" width="0" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="9" style="2" collapsed="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <f ca="1">NOW()</f>
+        <v>45805.921547800928</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
+        <v>EASY-24661790761</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>6</v>

--- a/License-sgl.xlsx
+++ b/License-sgl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad09c6d446519e5c/Waifu/FIRM/Github/easy-licenses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{8D0A274C-2A99-4977-971A-EA129EAD76FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D238C904-3EEB-4206-B2B6-97A02016729E}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{8D0A274C-2A99-4977-971A-EA129EAD76FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AD04E03-5BD1-4EE5-A13E-DF54C108F432}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Content" sheetId="2" r:id="rId1"/>
@@ -21,13 +21,14 @@
     <sheet name="BH02" sheetId="5" r:id="rId6"/>
     <sheet name="LK01" sheetId="6" r:id="rId7"/>
     <sheet name="LK02" sheetId="7" r:id="rId8"/>
-    <sheet name="CP02" sheetId="8" r:id="rId9"/>
-    <sheet name="TC02" sheetId="9" r:id="rId10"/>
-    <sheet name="CP03" sheetId="10" r:id="rId11"/>
-    <sheet name="GD01" sheetId="11" r:id="rId12"/>
-    <sheet name="GD02" sheetId="12" r:id="rId13"/>
-    <sheet name="TC03" sheetId="13" r:id="rId14"/>
-    <sheet name="BH03" sheetId="14" r:id="rId15"/>
+    <sheet name="LK03" sheetId="16" r:id="rId9"/>
+    <sheet name="CP02" sheetId="8" r:id="rId10"/>
+    <sheet name="TC02" sheetId="9" r:id="rId11"/>
+    <sheet name="CP03" sheetId="10" r:id="rId12"/>
+    <sheet name="GD01" sheetId="11" r:id="rId13"/>
+    <sheet name="GD02" sheetId="12" r:id="rId14"/>
+    <sheet name="TC03" sheetId="13" r:id="rId15"/>
+    <sheet name="BH03" sheetId="14" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="8">
   <si>
     <t>ID</t>
   </si>
@@ -502,6 +503,75 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E755A5C4-51DC-497A-A19E-7A81FC7D6344}">
+  <dimension ref="A1:O4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="57.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="34.75" style="4" customWidth="1"/>
+    <col min="4" max="13" width="9" style="2"/>
+    <col min="14" max="14" width="0" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="9" style="2" collapsed="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <f ca="1">NOW()</f>
+        <v>45806.806894212961</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
+        <v>EASY-63560409582</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>45804.330042939815</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="5cW5NmLfxOwAufsrsGDr9pRyxaxtVXkMhXG1jBHdhDvXVbTFPQVcMck6v2Jutpn0CH1wLOFF2XULOWW7r5m9Rg==" saltValue="iSGKe7tVrBx3zJOxH8I5+A==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" selectLockedCells="1" sort="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83AC8AE2-4D80-48B3-B27C-278BD9DF6326}">
   <dimension ref="A1:O4"/>
   <sheetViews>
@@ -523,11 +593,11 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45805.921547800928</v>
+        <v>45806.806894212961</v>
       </c>
       <c r="C1" s="2" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-50461136394</v>
+        <v>EASY-21008222497</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>6</v>
@@ -570,7 +640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C33EEC-53F1-40A6-9AB4-832CAF7C5015}">
   <dimension ref="A1:O4"/>
   <sheetViews>
@@ -592,11 +662,11 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45805.921547800928</v>
+        <v>45806.806894212961</v>
       </c>
       <c r="C1" s="2" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-89103365398</v>
+        <v>EASY-77007662579</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>6</v>
@@ -639,7 +709,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA169631-0036-47CA-BC94-BB8196A3F4AF}">
   <dimension ref="A1:O4"/>
   <sheetViews>
@@ -661,11 +731,11 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45805.921547800928</v>
+        <v>45806.806894212961</v>
       </c>
       <c r="C1" s="2" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-68997109063</v>
+        <v>EASY-86461306053</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>6</v>
@@ -708,7 +778,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE53F9D7-FC96-41D0-B876-2681B9D858C3}">
   <dimension ref="A1:O4"/>
   <sheetViews>
@@ -730,11 +800,11 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45805.921547800928</v>
+        <v>45806.806894212961</v>
       </c>
       <c r="C1" s="2" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-23025944918</v>
+        <v>EASY-90308767468</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>6</v>
@@ -777,7 +847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960FAB0D-F53C-4229-A4AF-C02A592BE1FC}">
   <dimension ref="A1:O4"/>
   <sheetViews>
@@ -799,11 +869,11 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45805.921547800928</v>
+        <v>45806.806894212961</v>
       </c>
       <c r="C1" s="2" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-99447527673</v>
+        <v>EASY-8974126943</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>6</v>
@@ -846,7 +916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0E1A2F-A8CD-4BF2-9BC8-529223C74CD9}">
   <dimension ref="A1:O4"/>
   <sheetViews>
@@ -868,11 +938,11 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45805.921547800928</v>
+        <v>45806.806894212961</v>
       </c>
       <c r="C1" s="2" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-81718908495</v>
+        <v>EASY-40164437284</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>6</v>
@@ -919,7 +989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C99B9A-9BC8-47F0-928F-B722FB50C9EE}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -937,11 +1007,11 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45805.921547800928</v>
+        <v>45806.806894212961</v>
       </c>
       <c r="C1" s="2" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-25674950770</v>
+        <v>EASY-87788288344</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>6</v>
@@ -1007,11 +1077,11 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45805.921547800928</v>
+        <v>45806.806894212961</v>
       </c>
       <c r="C1" s="2" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-1262854151</v>
+        <v>EASY-95742423617</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>6</v>
@@ -1076,11 +1146,11 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45805.921547800928</v>
+        <v>45806.806894212961</v>
       </c>
       <c r="C1" s="2" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-81513864087</v>
+        <v>EASY-7802931178</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>6</v>
@@ -1145,11 +1215,11 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45805.921547800928</v>
+        <v>45806.806894212961</v>
       </c>
       <c r="C1" s="2" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-33446360772</v>
+        <v>EASY-87952623177</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>6</v>
@@ -1214,11 +1284,11 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45805.921547800928</v>
+        <v>45806.806894212961</v>
       </c>
       <c r="C1" s="2" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-21990929251</v>
+        <v>EASY-76202289394</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>6</v>
@@ -1283,11 +1353,11 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45805.921547800928</v>
+        <v>45806.806894212961</v>
       </c>
       <c r="C1" s="2" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-28718397545</v>
+        <v>EASY-55268742045</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>6</v>
@@ -1352,11 +1422,11 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45805.921547800928</v>
+        <v>45806.806894212961</v>
       </c>
       <c r="C1" s="2" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-15241786116</v>
+        <v>EASY-53920967433</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>6</v>
@@ -1400,10 +1470,10 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E755A5C4-51DC-497A-A19E-7A81FC7D6344}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{115DF8F2-CC8A-4524-8261-81DCDDD13C91}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -1421,11 +1491,11 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45805.921547800928</v>
+        <v>45806.806894212961</v>
       </c>
       <c r="C1" s="2" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-24661790761</v>
+        <v>EASY-38725411649</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>6</v>

--- a/License-sgl.xlsx
+++ b/License-sgl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad09c6d446519e5c/Waifu/FIRM/Github/easy-licenses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{8D0A274C-2A99-4977-971A-EA129EAD76FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AD04E03-5BD1-4EE5-A13E-DF54C108F432}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{8D0A274C-2A99-4977-971A-EA129EAD76FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1771AF8F-7DEA-4558-B47F-312E50DBA7E9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2925" yWindow="1575" windowWidth="21930" windowHeight="12630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Content" sheetId="2" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -66,13 +66,43 @@
     <t>4C68A711-89BE-412A-BD2D-CB33771CC62D</t>
   </si>
   <si>
-    <t>EASY-90494060417</t>
-  </si>
-  <si>
     <t>LEAnh@4404$LEKhanh!3696)LEHuyen!3200(LEWives(3448$LEFam</t>
   </si>
   <si>
     <t>link server</t>
+  </si>
+  <si>
+    <t>4C4C4544-004E-3710-804C-B2C04F434B33</t>
+  </si>
+  <si>
+    <t>EASY-19433532692</t>
+  </si>
+  <si>
+    <t>4C4C4544-005A-3510-805A-B6C04F335032</t>
+  </si>
+  <si>
+    <t>EASY-95622037664</t>
+  </si>
+  <si>
+    <t>D3607EC2-831D-45BF-ABF5-29177EB2F0EC</t>
+  </si>
+  <si>
+    <t>EASY-59342082445</t>
+  </si>
+  <si>
+    <t>EASY-33329183463</t>
+  </si>
+  <si>
+    <t>02A20D18-F4BF-5E49-82D2-DEC36C81469A</t>
+  </si>
+  <si>
+    <t>EASY-63885723894</t>
+  </si>
+  <si>
+    <t>29027D39-DDBE-4E6A-9735-D40300E3C29F</t>
+  </si>
+  <si>
+    <t>EASY-29229771939</t>
   </si>
 </sst>
 </file>
@@ -494,7 +524,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -504,10 +536,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E755A5C4-51DC-497A-A19E-7A81FC7D6344}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="B3" sqref="B3:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -524,14 +556,14 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45806.806894212961</v>
+        <v>45808.78554409722</v>
       </c>
       <c r="C1" s="2" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-63560409582</v>
+        <v>EASY-34902679413</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -545,7 +577,7 @@
         <v>1</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -558,10 +590,50 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -573,10 +645,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83AC8AE2-4D80-48B3-B27C-278BD9DF6326}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="B3" sqref="B3:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -593,14 +665,14 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45806.806894212961</v>
+        <v>45808.78554409722</v>
       </c>
       <c r="C1" s="2" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-21008222497</v>
+        <v>EASY-35363271618</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -614,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -627,10 +699,50 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -642,10 +754,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C33EEC-53F1-40A6-9AB4-832CAF7C5015}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="B3" sqref="B3:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -662,14 +774,14 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45806.806894212961</v>
+        <v>45808.78554409722</v>
       </c>
       <c r="C1" s="2" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-77007662579</v>
+        <v>EASY-88392873010</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -683,7 +795,7 @@
         <v>1</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -696,10 +808,50 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -711,10 +863,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA169631-0036-47CA-BC94-BB8196A3F4AF}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="B3" sqref="B3:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -731,14 +883,14 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45806.806894212961</v>
+        <v>45808.78554409722</v>
       </c>
       <c r="C1" s="2" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-86461306053</v>
+        <v>EASY-97482595800</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -752,7 +904,7 @@
         <v>1</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -765,10 +917,50 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -780,10 +972,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE53F9D7-FC96-41D0-B876-2681B9D858C3}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="B3" sqref="B3:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -800,14 +992,14 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45806.806894212961</v>
+        <v>45808.78554409722</v>
       </c>
       <c r="C1" s="2" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-90308767468</v>
+        <v>EASY-25618211121</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -821,7 +1013,7 @@
         <v>1</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -834,10 +1026,50 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -849,10 +1081,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960FAB0D-F53C-4229-A4AF-C02A592BE1FC}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="B3" sqref="B3:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -869,14 +1101,14 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45806.806894212961</v>
+        <v>45808.78554409722</v>
       </c>
       <c r="C1" s="2" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-8974126943</v>
+        <v>EASY-78332366011</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -890,7 +1122,7 @@
         <v>1</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -903,10 +1135,50 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -918,10 +1190,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0E1A2F-A8CD-4BF2-9BC8-529223C74CD9}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="B3" sqref="B3:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -938,14 +1210,14 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45806.806894212961</v>
+        <v>45808.78554409722</v>
       </c>
       <c r="C1" s="2" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-40164437284</v>
+        <v>EASY-20779197118</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -959,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -972,10 +1244,50 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -987,10 +1299,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C99B9A-9BC8-47F0-928F-B722FB50C9EE}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B3" sqref="B3:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1007,14 +1319,14 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45806.806894212961</v>
+        <v>45808.78554409722</v>
       </c>
       <c r="C1" s="2" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-87788288344</v>
+        <v>EASY-63939245140</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -1028,7 +1340,7 @@
         <v>1</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -1041,10 +1353,50 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1057,10 +1409,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="B3" sqref="B3:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1077,14 +1429,14 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45806.806894212961</v>
+        <v>45808.78554409722</v>
       </c>
       <c r="C1" s="2" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-95742423617</v>
+        <v>EASY-36164061373</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -1098,7 +1450,7 @@
         <v>1</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -1111,10 +1463,50 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1126,10 +1518,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62260F8-F65C-4B5B-90CA-1C75167ED160}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="B3" sqref="B3:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1146,14 +1538,14 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45806.806894212961</v>
+        <v>45808.78554409722</v>
       </c>
       <c r="C1" s="2" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-7802931178</v>
+        <v>EASY-90715036659</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -1167,7 +1559,7 @@
         <v>1</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -1180,10 +1572,50 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1195,10 +1627,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559A3726-80C9-43EE-90A1-8F61EFDDE94B}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="B3" sqref="B3:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1215,14 +1647,14 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45806.806894212961</v>
+        <v>45808.78554409722</v>
       </c>
       <c r="C1" s="2" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-87952623177</v>
+        <v>EASY-78380847023</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -1236,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -1249,10 +1681,50 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1264,10 +1736,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19724779-EA5F-4886-88F8-3522DD516AC4}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="B3" sqref="B3:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1284,14 +1756,14 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45806.806894212961</v>
+        <v>45808.78554409722</v>
       </c>
       <c r="C1" s="2" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-76202289394</v>
+        <v>EASY-32597503754</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -1305,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -1318,10 +1790,50 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1333,10 +1845,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64C24FF-B53D-443A-B0D9-4EE8823CE2BE}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="B3" sqref="B3:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1353,14 +1865,14 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45806.806894212961</v>
+        <v>45808.78554409722</v>
       </c>
       <c r="C1" s="2" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-55268742045</v>
+        <v>EASY-9861372496</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -1374,7 +1886,7 @@
         <v>1</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -1387,10 +1899,50 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1402,10 +1954,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271C8CDE-511E-465B-9E20-EE0FAF4E3026}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="B3" sqref="B3:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1422,14 +1974,14 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45806.806894212961</v>
+        <v>45808.78554409722</v>
       </c>
       <c r="C1" s="2" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-53920967433</v>
+        <v>EASY-52256450981</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -1443,7 +1995,7 @@
         <v>1</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -1456,10 +2008,50 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1471,10 +2063,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{115DF8F2-CC8A-4524-8261-81DCDDD13C91}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1491,14 +2083,14 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45806.806894212961</v>
+        <v>45808.78554409722</v>
       </c>
       <c r="C1" s="2" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-38725411649</v>
+        <v>EASY-77949303020</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -1512,7 +2104,7 @@
         <v>1</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -1525,10 +2117,50 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/License-sgl.xlsx
+++ b/License-sgl.xlsx
@@ -1,34 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad09c6d446519e5c/Waifu/FIRM/Github/easy-licenses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{8D0A274C-2A99-4977-971A-EA129EAD76FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1771AF8F-7DEA-4558-B47F-312E50DBA7E9}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{8D0A274C-2A99-4977-971A-EA129EAD76FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4179F736-74B9-4AB9-BF99-BBA67DD23A0B}"/>
   <bookViews>
-    <workbookView xWindow="2925" yWindow="1575" windowWidth="21930" windowHeight="12630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Content" sheetId="2" r:id="rId1"/>
     <sheet name="QT01" sheetId="15" r:id="rId2"/>
-    <sheet name="TC01" sheetId="1" r:id="rId3"/>
-    <sheet name="CP01" sheetId="3" r:id="rId4"/>
-    <sheet name="BH01" sheetId="4" r:id="rId5"/>
-    <sheet name="BH02" sheetId="5" r:id="rId6"/>
-    <sheet name="LK01" sheetId="6" r:id="rId7"/>
-    <sheet name="LK02" sheetId="7" r:id="rId8"/>
-    <sheet name="LK03" sheetId="16" r:id="rId9"/>
-    <sheet name="CP02" sheetId="8" r:id="rId10"/>
-    <sheet name="TC02" sheetId="9" r:id="rId11"/>
-    <sheet name="CP03" sheetId="10" r:id="rId12"/>
-    <sheet name="GD01" sheetId="11" r:id="rId13"/>
-    <sheet name="GD02" sheetId="12" r:id="rId14"/>
-    <sheet name="TC03" sheetId="13" r:id="rId15"/>
-    <sheet name="BH03" sheetId="14" r:id="rId16"/>
+    <sheet name="QT02" sheetId="17" r:id="rId3"/>
+    <sheet name="TC01" sheetId="1" r:id="rId4"/>
+    <sheet name="CP01" sheetId="3" r:id="rId5"/>
+    <sheet name="BH01" sheetId="4" r:id="rId6"/>
+    <sheet name="BH02" sheetId="5" r:id="rId7"/>
+    <sheet name="LK01" sheetId="6" r:id="rId8"/>
+    <sheet name="LK02" sheetId="7" r:id="rId9"/>
+    <sheet name="LK03" sheetId="16" r:id="rId10"/>
+    <sheet name="CP02" sheetId="8" r:id="rId11"/>
+    <sheet name="TC02" sheetId="9" r:id="rId12"/>
+    <sheet name="CP03" sheetId="10" r:id="rId13"/>
+    <sheet name="GD01" sheetId="11" r:id="rId14"/>
+    <sheet name="GD02" sheetId="12" r:id="rId15"/>
+    <sheet name="TC03" sheetId="13" r:id="rId16"/>
+    <sheet name="BH03" sheetId="14" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -524,7 +525,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -535,6 +536,115 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{115DF8F2-CC8A-4524-8261-81DCDDD13C91}">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="57.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="34.75" style="4" customWidth="1"/>
+    <col min="4" max="13" width="9" style="2"/>
+    <col min="14" max="14" width="0" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="9" style="2" collapsed="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <f ca="1">NOW()</f>
+        <v>45812.88999826389</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
+        <v>EASY-86597099418</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>45804.330042939815</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="5cW5NmLfxOwAufsrsGDr9pRyxaxtVXkMhXG1jBHdhDvXVbTFPQVcMck6v2Jutpn0CH1wLOFF2XULOWW7r5m9Rg==" saltValue="iSGKe7tVrBx3zJOxH8I5+A==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" selectLockedCells="1" sort="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E755A5C4-51DC-497A-A19E-7A81FC7D6344}">
   <dimension ref="A1:O9"/>
   <sheetViews>
@@ -556,11 +666,11 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45808.78554409722</v>
+        <v>45812.88999826389</v>
       </c>
       <c r="C1" s="2" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-34902679413</v>
+        <v>EASY-84606294655</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>5</v>
@@ -643,7 +753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83AC8AE2-4D80-48B3-B27C-278BD9DF6326}">
   <dimension ref="A1:O9"/>
   <sheetViews>
@@ -665,11 +775,11 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45808.78554409722</v>
+        <v>45812.88999826389</v>
       </c>
       <c r="C1" s="2" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-35363271618</v>
+        <v>EASY-81943915830</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>5</v>
@@ -752,7 +862,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C33EEC-53F1-40A6-9AB4-832CAF7C5015}">
   <dimension ref="A1:O9"/>
   <sheetViews>
@@ -774,11 +884,11 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45808.78554409722</v>
+        <v>45812.88999826389</v>
       </c>
       <c r="C1" s="2" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-88392873010</v>
+        <v>EASY-47124797543</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>5</v>
@@ -861,7 +971,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA169631-0036-47CA-BC94-BB8196A3F4AF}">
   <dimension ref="A1:O9"/>
   <sheetViews>
@@ -883,11 +993,11 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45808.78554409722</v>
+        <v>45812.88999826389</v>
       </c>
       <c r="C1" s="2" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-97482595800</v>
+        <v>EASY-74862319076</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>5</v>
@@ -970,7 +1080,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE53F9D7-FC96-41D0-B876-2681B9D858C3}">
   <dimension ref="A1:O9"/>
   <sheetViews>
@@ -992,11 +1102,11 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45808.78554409722</v>
+        <v>45812.88999826389</v>
       </c>
       <c r="C1" s="2" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-25618211121</v>
+        <v>EASY-82832035635</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>5</v>
@@ -1079,7 +1189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960FAB0D-F53C-4229-A4AF-C02A592BE1FC}">
   <dimension ref="A1:O9"/>
   <sheetViews>
@@ -1101,11 +1211,11 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45808.78554409722</v>
+        <v>45812.88999826389</v>
       </c>
       <c r="C1" s="2" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-78332366011</v>
+        <v>EASY-77720341108</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>5</v>
@@ -1188,7 +1298,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0E1A2F-A8CD-4BF2-9BC8-529223C74CD9}">
   <dimension ref="A1:O9"/>
   <sheetViews>
@@ -1210,11 +1320,11 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45808.78554409722</v>
+        <v>45812.88999826389</v>
       </c>
       <c r="C1" s="2" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-20779197118</v>
+        <v>EASY-65671806866</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>5</v>
@@ -1301,8 +1411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C99B9A-9BC8-47F0-928F-B722FB50C9EE}">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1319,11 +1429,11 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45808.78554409722</v>
+        <v>45812.88999826389</v>
       </c>
       <c r="C1" s="2" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-63939245140</v>
+        <v>EASY-71844822975</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>5</v>
@@ -1407,6 +1517,115 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3BBA191-6BE1-4F08-AA41-45BFCCAE13DA}">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="57.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="34.75" style="4" customWidth="1"/>
+    <col min="4" max="13" width="9" style="2"/>
+    <col min="14" max="14" width="0" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="9" style="2" collapsed="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <f ca="1">NOW()</f>
+        <v>45812.88999826389</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
+        <v>EASY-69732421544</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>45804.330042939815</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="5cW5NmLfxOwAufsrsGDr9pRyxaxtVXkMhXG1jBHdhDvXVbTFPQVcMck6v2Jutpn0CH1wLOFF2XULOWW7r5m9Rg==" saltValue="iSGKe7tVrBx3zJOxH8I5+A==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" selectLockedCells="1" sort="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O9"/>
@@ -1429,11 +1648,11 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45808.78554409722</v>
+        <v>45812.88999826389</v>
       </c>
       <c r="C1" s="2" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-36164061373</v>
+        <v>EASY-8111710189</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>5</v>
@@ -1516,7 +1735,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62260F8-F65C-4B5B-90CA-1C75167ED160}">
   <dimension ref="A1:O9"/>
   <sheetViews>
@@ -1538,11 +1757,11 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45808.78554409722</v>
+        <v>45812.88999826389</v>
       </c>
       <c r="C1" s="2" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-90715036659</v>
+        <v>EASY-64072214312</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>5</v>
@@ -1625,7 +1844,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559A3726-80C9-43EE-90A1-8F61EFDDE94B}">
   <dimension ref="A1:O9"/>
   <sheetViews>
@@ -1647,11 +1866,11 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45808.78554409722</v>
+        <v>45812.88999826389</v>
       </c>
       <c r="C1" s="2" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-78380847023</v>
+        <v>EASY-81873892684</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>5</v>
@@ -1734,7 +1953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19724779-EA5F-4886-88F8-3522DD516AC4}">
   <dimension ref="A1:O9"/>
   <sheetViews>
@@ -1756,11 +1975,11 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45808.78554409722</v>
+        <v>45812.88999826389</v>
       </c>
       <c r="C1" s="2" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-32597503754</v>
+        <v>EASY-48503358624</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>5</v>
@@ -1843,7 +2062,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64C24FF-B53D-443A-B0D9-4EE8823CE2BE}">
   <dimension ref="A1:O9"/>
   <sheetViews>
@@ -1865,11 +2084,11 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45808.78554409722</v>
+        <v>45812.88999826389</v>
       </c>
       <c r="C1" s="2" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-9861372496</v>
+        <v>EASY-91129300470</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>5</v>
@@ -1952,7 +2171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271C8CDE-511E-465B-9E20-EE0FAF4E3026}">
   <dimension ref="A1:O9"/>
   <sheetViews>
@@ -1974,120 +2193,11 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45808.78554409722</v>
+        <v>45812.88999826389</v>
       </c>
       <c r="C1" s="2" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-52256450981</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>45804.330042939815</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5cW5NmLfxOwAufsrsGDr9pRyxaxtVXkMhXG1jBHdhDvXVbTFPQVcMck6v2Jutpn0CH1wLOFF2XULOWW7r5m9Rg==" saltValue="iSGKe7tVrBx3zJOxH8I5+A==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" selectLockedCells="1" sort="0"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{115DF8F2-CC8A-4524-8261-81DCDDD13C91}">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="57.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="34.75" style="4" customWidth="1"/>
-    <col min="4" max="13" width="9" style="2"/>
-    <col min="14" max="14" width="0" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="9" style="2" collapsed="1"/>
-    <col min="16" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="1">
-        <f ca="1">NOW()</f>
-        <v>45808.78554409722</v>
-      </c>
-      <c r="C1" s="2" t="str">
-        <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-77949303020</v>
+        <v>EASY-10910422935</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>5</v>
